--- a/output_mur.xlsx
+++ b/output_mur.xlsx
@@ -39157,8 +39157,8 @@
     <mergeCell ref="AC14:AI14"/>
     <mergeCell ref="I6:T6"/>
     <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="A1:AI2"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:AI2"/>
     <mergeCell ref="A4:AI4"/>
     <mergeCell ref="A9:B9"/>
   </mergeCells>
